--- a/outX.xlsx
+++ b/outX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="48">
   <si>
     <t>File name</t>
   </si>
@@ -38,7 +38,7 @@
     <t>PODS_GRID_XXX.xml</t>
   </si>
   <si>
-    <t>PODS_STO_100_VALUE_CONDITION_CNT</t>
+    <t>PODS_STO_RANGE_DANGER_DEG_CNT</t>
   </si>
   <si>
     <t>select</t>
@@ -50,46 +50,112 @@
     <t>OK</t>
   </si>
   <si>
-    <t>192.397</t>
+    <t>135.463</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>PODS_STO_100_DANGER_DEG</t>
-  </si>
-  <si>
-    <t>197.16</t>
-  </si>
-  <si>
-    <t>PODS_STO_100_DANGER_DEG_CNT</t>
-  </si>
-  <si>
-    <t>206.582</t>
-  </si>
-  <si>
-    <t>PODS_STO_100_SEGMENT_CATEGORY</t>
-  </si>
-  <si>
-    <t>186.824</t>
-  </si>
-  <si>
-    <t>PODS_STO_100_SEGMENT_CATEGORY_CNT</t>
-  </si>
-  <si>
-    <t>196.439</t>
-  </si>
-  <si>
-    <t>PODS_STO_100_TIME_TO_CRIT_DEPTH</t>
-  </si>
-  <si>
-    <t>190.749</t>
-  </si>
-  <si>
-    <t>PODS_STO_100_TIME_TO_CRIT_DEPTH_CNT</t>
-  </si>
-  <si>
-    <t>195.084</t>
+    <t>PODS_STO_RANGE_SEGMENT_CATEGORY</t>
+  </si>
+  <si>
+    <t>101.313</t>
+  </si>
+  <si>
+    <t>PODS_STO_RANGE_SEGMENT_CATEGORY_CNT</t>
+  </si>
+  <si>
+    <t>110.564</t>
+  </si>
+  <si>
+    <t>PODS_STO_RANGE_TIME_TO_CRIT_DEPTH</t>
+  </si>
+  <si>
+    <t>91.897</t>
+  </si>
+  <si>
+    <t>PODS_STO_RANGE_TIME_TO_CRIT_DEPTH_CNT</t>
+  </si>
+  <si>
+    <t>113.586</t>
+  </si>
+  <si>
+    <t>PODS_ROAD_ENTITY</t>
+  </si>
+  <si>
+    <t>2.278</t>
+  </si>
+  <si>
+    <t>PODS_ROAD_ENTITY_CNT</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>INFOTEH_REPAIR</t>
+  </si>
+  <si>
+    <t>1.109</t>
+  </si>
+  <si>
+    <t>INFOTEH_REPAIR_CNT</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>INFOTEH_EXCAVATE</t>
+  </si>
+  <si>
+    <t>0.133</t>
+  </si>
+  <si>
+    <t>INFOTEH_EXCAVATE_CNT</t>
+  </si>
+  <si>
+    <t>0.056</t>
+  </si>
+  <si>
+    <t>PODS_STO_DATE_TEST</t>
+  </si>
+  <si>
+    <t>0.249</t>
+  </si>
+  <si>
+    <t>PODS_STO_DATE_TEST_CNT</t>
+  </si>
+  <si>
+    <t>0.062</t>
+  </si>
+  <si>
+    <t>PODS_STO_DATE_REPAIR</t>
+  </si>
+  <si>
+    <t>PODS_STO_DATE_REPAIR_CNT</t>
+  </si>
+  <si>
+    <t>0.082</t>
+  </si>
+  <si>
+    <t>PODS_LTG_KOCHETKOVA</t>
+  </si>
+  <si>
+    <t>PODS_LTG_KOCHETKOVA_CNT</t>
+  </si>
+  <si>
+    <t>0.063</t>
+  </si>
+  <si>
+    <t>PODS_STO_PIPE_SEGMENT_PARAMS</t>
+  </si>
+  <si>
+    <t>19.794</t>
+  </si>
+  <si>
+    <t>PODS_STO_PIPE_SEGMENT_PARAMS_CNT</t>
+  </si>
+  <si>
+    <t>2.185</t>
   </si>
 </sst>
 </file>
@@ -97,7 +163,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="9">
+  <fonts count="21">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -110,6 +176,66 @@
       <sz val="14.0"/>
       <color indexed="8"/>
       <b val="true"/>
+    </font>
+    <font>
+      <name val="Century Gothic"/>
+      <sz val="10.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Century Gothic"/>
+      <sz val="10.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Century Gothic"/>
+      <sz val="10.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Century Gothic"/>
+      <sz val="10.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Century Gothic"/>
+      <sz val="10.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Century Gothic"/>
+      <sz val="10.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Century Gothic"/>
+      <sz val="10.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Century Gothic"/>
+      <sz val="10.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Century Gothic"/>
+      <sz val="10.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Century Gothic"/>
+      <sz val="10.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Century Gothic"/>
+      <sz val="10.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Century Gothic"/>
+      <sz val="10.0"/>
+      <color indexed="8"/>
     </font>
     <font>
       <name val="Century Gothic"/>
@@ -266,7 +392,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
@@ -277,6 +403,18 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="8" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="8" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="8" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="8" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="8" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="8" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="8" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -290,7 +428,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="20.7890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="42.27734375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="45.94140625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="16.71875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="21.70703125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="9.3828125" customWidth="true" bestFit="true"/>
@@ -470,6 +608,258 @@
       </c>
       <c r="G8" s="9"/>
     </row>
+    <row r="9">
+      <c r="A9" t="s" s="10">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s" s="10">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s" s="10">
+        <v>27</v>
+      </c>
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="11">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s" s="11">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s" s="11">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s" s="11">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s" s="11">
+        <v>29</v>
+      </c>
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="12">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s" s="12">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s" s="12">
+        <v>31</v>
+      </c>
+      <c r="G11" s="12"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="13">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s" s="13">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s" s="13">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s" s="13">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s" s="13">
+        <v>33</v>
+      </c>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="14">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s" s="14">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s" s="14">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s" s="14">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s" s="14">
+        <v>35</v>
+      </c>
+      <c r="G13" s="14"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="15">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s" s="15">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s" s="15">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s" s="15">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s" s="15">
+        <v>37</v>
+      </c>
+      <c r="G14" s="15"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="16">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s" s="16">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s" s="16">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s" s="16">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s" s="16">
+        <v>11</v>
+      </c>
+      <c r="F15" t="s" s="16">
+        <v>37</v>
+      </c>
+      <c r="G15" s="16"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="17">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s" s="17">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s" s="17">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s" s="17">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s" s="17">
+        <v>11</v>
+      </c>
+      <c r="F16" t="s" s="17">
+        <v>40</v>
+      </c>
+      <c r="G16" s="17"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="18">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s" s="18">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s" s="18">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s" s="18">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s" s="18">
+        <v>11</v>
+      </c>
+      <c r="F17" t="s" s="18">
+        <v>37</v>
+      </c>
+      <c r="G17" s="18"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="19">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s" s="19">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s" s="19">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s" s="19">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="F18" t="s" s="19">
+        <v>43</v>
+      </c>
+      <c r="G18" s="19"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="20">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s" s="20">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s" s="20">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s" s="20">
+        <v>10</v>
+      </c>
+      <c r="E19" t="s" s="20">
+        <v>11</v>
+      </c>
+      <c r="F19" t="s" s="20">
+        <v>45</v>
+      </c>
+      <c r="G19" s="20"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="21">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s" s="21">
+        <v>46</v>
+      </c>
+      <c r="C20" t="s" s="21">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s" s="21">
+        <v>10</v>
+      </c>
+      <c r="E20" t="s" s="21">
+        <v>11</v>
+      </c>
+      <c r="F20" t="s" s="21">
+        <v>47</v>
+      </c>
+      <c r="G20" s="21"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/outX.xlsx
+++ b/outX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="51">
   <si>
     <t>File name</t>
   </si>
@@ -35,10 +35,10 @@
     <t>Error text</t>
   </si>
   <si>
-    <t>PODS_POLICY.xml</t>
-  </si>
-  <si>
-    <t>PODS_LPU</t>
+    <t>WIDGET_SYS_SEM_XXX.xml</t>
+  </si>
+  <si>
+    <t>FIND_PIPE_KM_BY_LINE</t>
   </si>
   <si>
     <t>select</t>
@@ -47,43 +47,142 @@
     <t>dbQuery</t>
   </si>
   <si>
+    <t>ERROR</t>
+  </si>
+  <si>
+    <t>0.084</t>
+  </si>
+  <si>
+    <t>ОШИБКА: ошибка синтаксиса (примерное положение: "{")
+  Позиция: 623</t>
+  </si>
+  <si>
+    <t>FIND_PART_LINE</t>
+  </si>
+  <si>
+    <t>geoQuery</t>
+  </si>
+  <si>
     <t>OK</t>
   </si>
   <si>
-    <t>0.1</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>PODS_ROUTE_TYPE</t>
-  </si>
-  <si>
-    <t>0.047</t>
-  </si>
-  <si>
-    <t>PODS_LINE_ID</t>
-  </si>
-  <si>
-    <t>10.676</t>
-  </si>
-  <si>
-    <t>PODS_LPU_GRID</t>
-  </si>
-  <si>
-    <t>0.043</t>
-  </si>
-  <si>
-    <t>PODS_ROUTE_TYPE_GRID</t>
-  </si>
-  <si>
-    <t>0.031</t>
-  </si>
-  <si>
-    <t>PODS_LINE_GRID</t>
-  </si>
-  <si>
-    <t>0.079</t>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>CAS_FIND_OBJ_ID</t>
+  </si>
+  <si>
+    <t>0.053</t>
+  </si>
+  <si>
+    <t>ОШИБКА: ошибка синтаксиса (примерное положение: "{")
+  Позиция: 71</t>
+  </si>
+  <si>
+    <t>CAS_FIND_EXT_OBJ_ID</t>
+  </si>
+  <si>
+    <t>0.058</t>
+  </si>
+  <si>
+    <t>ОШИБКА: столбец "string" не существует
+  Позиция: 89</t>
+  </si>
+  <si>
+    <t>GPXEXPORT_FIND_EXT_OBJ_ID</t>
+  </si>
+  <si>
+    <t>0.062</t>
+  </si>
+  <si>
+    <t>ОШИБКА: оператор не существует: character varying = integer
+  Подсказка: Оператор с данными именем и типами аргументов не найден. Возможно, вам следует добавить явные приведения типов.
+  Позиция: 124</t>
+  </si>
+  <si>
+    <t>FIND_INF_IDS</t>
+  </si>
+  <si>
+    <t>0.056</t>
+  </si>
+  <si>
+    <t>ОШИБКА: неверное значение для целого числа: "ROUTE"
+  Позиция: 139</t>
+  </si>
+  <si>
+    <t>FIND_LAYER_EXT_ID</t>
+  </si>
+  <si>
+    <t>0.045</t>
+  </si>
+  <si>
+    <t>ОШИБКА: оператор не существует: character varying = integer
+  Подсказка: Оператор с данными именем и типами аргументов не найден. Возможно, вам следует добавить явные приведения типов.
+  Позиция: 146</t>
+  </si>
+  <si>
+    <t>IMG_FIND_OBJ_ID</t>
+  </si>
+  <si>
+    <t>0.059</t>
+  </si>
+  <si>
+    <t>IMG_FIND_EXT_OBJ_ID</t>
+  </si>
+  <si>
+    <t>0.041</t>
+  </si>
+  <si>
+    <t>ОШИБКА: оператор не существует: character varying = integer
+  Подсказка: Оператор с данными именем и типами аргументов не найден. Возможно, вам следует добавить явные приведения типов.
+  Позиция: 1012</t>
+  </si>
+  <si>
+    <t>EXCELEXPORT_FIND_OBJ_ID</t>
+  </si>
+  <si>
+    <t>0.052</t>
+  </si>
+  <si>
+    <t>ОШИБКА: оператор не существует: character varying = integer
+  Подсказка: Оператор с данными именем и типами аргументов не найден. Возможно, вам следует добавить явные приведения типов.
+  Позиция: 224</t>
+  </si>
+  <si>
+    <t>EXCELEXPORT_FIND_EXT_OBJ_ID</t>
+  </si>
+  <si>
+    <t>ОШИБКА: оператор не существует: character varying = integer
+  Подсказка: Оператор с данными именем и типами аргументов не найден. Возможно, вам следует добавить явные приведения типов.
+  Позиция: 223</t>
+  </si>
+  <si>
+    <t>VRML_FIND_OBJ_ID</t>
+  </si>
+  <si>
+    <t>VRML_FIND_EXT_OBJ_ID</t>
+  </si>
+  <si>
+    <t>0.086</t>
+  </si>
+  <si>
+    <t>FIND_EXT_OBJ_ID</t>
+  </si>
+  <si>
+    <t>ОШИБКА: оператор не существует: character varying = integer
+  Подсказка: Оператор с данными именем и типами аргументов не найден. Возможно, вам следует добавить явные приведения типов.
+  Позиция: 135</t>
+  </si>
+  <si>
+    <t>CHANGE_MAP_FIND_OBJ_ID</t>
+  </si>
+  <si>
+    <t>0.039</t>
+  </si>
+  <si>
+    <t>ОШИБКА: оператор не существует: text = integer
+  Подсказка: Оператор с данными именем и типами аргументов не найден. Возможно, вам следует добавить явные приведения типов.
+  Позиция: 100</t>
   </si>
 </sst>
 </file>
@@ -91,7 +190,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="8">
+  <fonts count="17">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -135,8 +234,53 @@
       <sz val="10.0"/>
       <color indexed="8"/>
     </font>
+    <font>
+      <name val="Century Gothic"/>
+      <sz val="10.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Century Gothic"/>
+      <sz val="10.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Century Gothic"/>
+      <sz val="10.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Century Gothic"/>
+      <sz val="10.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Century Gothic"/>
+      <sz val="10.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Century Gothic"/>
+      <sz val="10.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Century Gothic"/>
+      <sz val="10.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Century Gothic"/>
+      <sz val="10.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Century Gothic"/>
+      <sz val="10.0"/>
+      <color indexed="8"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -162,6 +306,16 @@
       <patternFill patternType="none">
         <fgColor indexed="44"/>
         <bgColor indexed="24"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
       </patternFill>
     </fill>
     <fill>
@@ -255,16 +409,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="8" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="8" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="8" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="8" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="8" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -277,13 +440,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="18.34375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="24.82421875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="26.09375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="31.5546875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="16.71875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="21.70703125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="9.3828125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="21.48046875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="13.24609375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="138.68359375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -343,13 +506,13 @@
         <v>9</v>
       </c>
       <c r="D3" t="s" s="4">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s" s="4">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G3" s="4"/>
     </row>
@@ -358,7 +521,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s" s="5">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s" s="5">
         <v>9</v>
@@ -370,16 +533,18 @@
         <v>11</v>
       </c>
       <c r="F4" t="s" s="5">
-        <v>17</v>
-      </c>
-      <c r="G4" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="G4" t="s" s="5">
+        <v>20</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="6">
         <v>7</v>
       </c>
       <c r="B5" t="s" s="6">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s" s="6">
         <v>9</v>
@@ -391,16 +556,18 @@
         <v>11</v>
       </c>
       <c r="F5" t="s" s="6">
-        <v>19</v>
-      </c>
-      <c r="G5" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="G5" t="s" s="6">
+        <v>23</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="7">
         <v>7</v>
       </c>
       <c r="B6" t="s" s="7">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s" s="7">
         <v>9</v>
@@ -412,16 +579,18 @@
         <v>11</v>
       </c>
       <c r="F6" t="s" s="7">
-        <v>21</v>
-      </c>
-      <c r="G6" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="G6" t="s" s="7">
+        <v>26</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="8">
         <v>7</v>
       </c>
       <c r="B7" t="s" s="8">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s" s="8">
         <v>9</v>
@@ -433,9 +602,214 @@
         <v>11</v>
       </c>
       <c r="F7" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="G7" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="G7" t="s" s="8">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="9">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s" s="9">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s" s="9">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s" s="9">
+        <v>31</v>
+      </c>
+      <c r="G8" t="s" s="9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="10">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s" s="10">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s" s="10">
+        <v>34</v>
+      </c>
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="11">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s" s="11">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s" s="11">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s" s="11">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s" s="11">
+        <v>36</v>
+      </c>
+      <c r="G10" t="s" s="11">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="12">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s" s="12">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s" s="12">
+        <v>39</v>
+      </c>
+      <c r="G11" t="s" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="13">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s" s="13">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s" s="13">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s" s="13">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s" s="13">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s" s="13">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="14">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s" s="14">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s" s="14">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s" s="14">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s" s="14">
+        <v>16</v>
+      </c>
+      <c r="F13" t="s" s="14">
+        <v>39</v>
+      </c>
+      <c r="G13" s="14"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="15">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s" s="15">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s" s="15">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s" s="15">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s" s="15">
+        <v>45</v>
+      </c>
+      <c r="G14" t="s" s="15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="16">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s" s="16">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s" s="16">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s" s="16">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s" s="16">
+        <v>11</v>
+      </c>
+      <c r="F15" t="s" s="16">
+        <v>36</v>
+      </c>
+      <c r="G15" t="s" s="16">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="17">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s" s="17">
+        <v>48</v>
+      </c>
+      <c r="C16" t="s" s="17">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s" s="17">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s" s="17">
+        <v>11</v>
+      </c>
+      <c r="F16" t="s" s="17">
+        <v>49</v>
+      </c>
+      <c r="G16" t="s" s="17">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
